--- a/runs/run253/NotionalETEOutput253.xlsx
+++ b/runs/run253/NotionalETEOutput253.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER1_State_Update</t>
+    <t>Missile_HELLMASKER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1_98.MISSILE_BRAVER1_98</t>
+    <t>MISSILE_HELLMASKER3_250.MISSILE_HELLMASKER3_250</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1</t>
+    <t>MISSILE_HELLMASKER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1446.688436858527</v>
+        <v>-1537.792123546466</v>
       </c>
       <c r="J2">
-        <v>2028.996623361279</v>
+        <v>2084.376530814582</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1422.429857654127</v>
+        <v>-1509.012600402456</v>
       </c>
       <c r="J3">
-        <v>2009.25734891869</v>
+        <v>1861.955542311496</v>
       </c>
       <c r="K3">
-        <v>308.987114760194</v>
+        <v>292.5307345127254</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1448.539924387229</v>
+        <v>-1484.99335880402</v>
       </c>
       <c r="J4">
-        <v>1911.257175693363</v>
+        <v>1860.396815616454</v>
       </c>
       <c r="K4">
-        <v>597.5069738018783</v>
+        <v>606.4859091371052</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1441.041331399989</v>
+        <v>-1425.183708051375</v>
       </c>
       <c r="J5">
-        <v>1944.089332886539</v>
+        <v>1943.96578344083</v>
       </c>
       <c r="K5">
-        <v>850.3491219783541</v>
+        <v>860.5071515724932</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1390.30279634037</v>
+        <v>-1335.682981470377</v>
       </c>
       <c r="J6">
-        <v>1750.993746184219</v>
+        <v>1890.682980956248</v>
       </c>
       <c r="K6">
-        <v>1158.773275870945</v>
+        <v>1085.166862478218</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1366.725429231581</v>
+        <v>-1322.345256481705</v>
       </c>
       <c r="J7">
-        <v>1816.274750768676</v>
+        <v>1680.748235180343</v>
       </c>
       <c r="K7">
-        <v>1404.495887701416</v>
+        <v>1366.770763948881</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1248.8093520788</v>
+        <v>-1313.128482450853</v>
       </c>
       <c r="J8">
-        <v>1738.175687429252</v>
+        <v>1656.668592218974</v>
       </c>
       <c r="K8">
-        <v>1544.898780091135</v>
+        <v>1546.66590605745</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-103.8335392008703</v>
+        <v>-96.91879068767716</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1239.676342557538</v>
+        <v>-1239.122590612094</v>
       </c>
       <c r="J9">
-        <v>1689.603109821998</v>
+        <v>1710.133555796722</v>
       </c>
       <c r="K9">
-        <v>1829.844079252949</v>
+        <v>1720.944995697427</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>220.2647306651858</v>
+        <v>209.0309116875773</v>
       </c>
       <c r="G10">
-        <v>-82.60739593994636</v>
+        <v>-85.70073155543578</v>
       </c>
       <c r="H10">
-        <v>859.205499816867</v>
+        <v>883.4344576134189</v>
       </c>
       <c r="I10">
-        <v>-1189.051131265689</v>
+        <v>-1202.701233377226</v>
       </c>
       <c r="J10">
-        <v>1582.766346496516</v>
+        <v>1571.941677492809</v>
       </c>
       <c r="K10">
-        <v>1929.742135555602</v>
+        <v>1923.822766468059</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.9506860983785</v>
+        <v>160.7913885325677</v>
       </c>
       <c r="G11">
-        <v>-67.96977115483318</v>
+        <v>-70.05395508302438</v>
       </c>
       <c r="H11">
-        <v>1091.447008233001</v>
+        <v>1031.770527999479</v>
       </c>
       <c r="I11">
-        <v>-1226.171173629797</v>
+        <v>-1167.762284390639</v>
       </c>
       <c r="J11">
-        <v>1569.480674595739</v>
+        <v>1571.318157957385</v>
       </c>
       <c r="K11">
-        <v>2123.232693905956</v>
+        <v>2215.572871372896</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.9309170765766</v>
+        <v>135.1095332197978</v>
       </c>
       <c r="G12">
-        <v>-52.61131629583926</v>
+        <v>-51.2745362399391</v>
       </c>
       <c r="H12">
-        <v>1201.217426091051</v>
+        <v>1164.025653160021</v>
       </c>
       <c r="I12">
-        <v>-1178.93133976179</v>
+        <v>-1134.213464767048</v>
       </c>
       <c r="J12">
-        <v>1461.48788974601</v>
+        <v>1483.118372348916</v>
       </c>
       <c r="K12">
-        <v>2299.752647570517</v>
+        <v>2275.67712356824</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.7222969974696</v>
+        <v>123.0686592541017</v>
       </c>
       <c r="G13">
-        <v>-33.38363763727923</v>
+        <v>-35.17996771793528</v>
       </c>
       <c r="H13">
-        <v>1205.708313524105</v>
+        <v>1219.865798530009</v>
       </c>
       <c r="I13">
-        <v>-1101.216041482382</v>
+        <v>-1160.91328355888</v>
       </c>
       <c r="J13">
-        <v>1396.333778999742</v>
+        <v>1396.659740087008</v>
       </c>
       <c r="K13">
-        <v>2603.059525423762</v>
+        <v>2447.48074966072</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.9652223592398</v>
+        <v>114.1101682400317</v>
       </c>
       <c r="G14">
-        <v>-17.68781711050778</v>
+        <v>-16.91858950923578</v>
       </c>
       <c r="H14">
-        <v>1307.494007570387</v>
+        <v>1371.81413173119</v>
       </c>
       <c r="I14">
-        <v>-1136.483870756931</v>
+        <v>-1062.766810214268</v>
       </c>
       <c r="J14">
-        <v>1476.516060933341</v>
+        <v>1370.903858877385</v>
       </c>
       <c r="K14">
-        <v>2529.401199305431</v>
+        <v>2631.768539767185</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.2073968332584</v>
+        <v>100.2580811929474</v>
       </c>
       <c r="G15">
-        <v>-0.9090188348829761</v>
+        <v>-0.9526633499648117</v>
       </c>
       <c r="H15">
-        <v>1313.203253116294</v>
+        <v>1384.815711535591</v>
       </c>
       <c r="I15">
-        <v>-1051.136595618585</v>
+        <v>-1046.128173977132</v>
       </c>
       <c r="J15">
-        <v>1320.988429296078</v>
+        <v>1304.407087510117</v>
       </c>
       <c r="K15">
-        <v>2678.378310933372</v>
+        <v>2701.396064834777</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.60280425660621</v>
+        <v>97.38645338272543</v>
       </c>
       <c r="G16">
-        <v>15.80551459347127</v>
+        <v>16.02679776125583</v>
       </c>
       <c r="H16">
-        <v>1366.509031704235</v>
+        <v>1421.682958732604</v>
       </c>
       <c r="I16">
-        <v>-1023.676761956386</v>
+        <v>-1000.658565150072</v>
       </c>
       <c r="J16">
-        <v>1273.827105474752</v>
+        <v>1267.564084274085</v>
       </c>
       <c r="K16">
-        <v>2973.908018849745</v>
+        <v>2736.904920609002</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.44727300172755</v>
+        <v>88.53264889765532</v>
       </c>
       <c r="G17">
-        <v>32.84697251147276</v>
+        <v>31.64056192353911</v>
       </c>
       <c r="H17">
-        <v>1398.205058970352</v>
+        <v>1426.789858583953</v>
       </c>
       <c r="I17">
-        <v>-923.84472126627</v>
+        <v>-971.3253523528687</v>
       </c>
       <c r="J17">
-        <v>1278.882131102367</v>
+        <v>1257.578450414359</v>
       </c>
       <c r="K17">
-        <v>2971.465612393269</v>
+        <v>2945.318703254014</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.27509907647617</v>
+        <v>80.93128864413467</v>
       </c>
       <c r="G18">
-        <v>50.40482826668045</v>
+        <v>49.19178129515674</v>
       </c>
       <c r="H18">
-        <v>1546.550620989447</v>
+        <v>1479.484187358669</v>
       </c>
       <c r="I18">
-        <v>-923.4245365840259</v>
+        <v>-912.0118239968746</v>
       </c>
       <c r="J18">
-        <v>1247.125509521035</v>
+        <v>1195.348617688112</v>
       </c>
       <c r="K18">
-        <v>3170.008515298559</v>
+        <v>3094.08774230932</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.47974527151587</v>
+        <v>75.55790876203326</v>
       </c>
       <c r="G19">
-        <v>62.15137010542431</v>
+        <v>64.09189314331655</v>
       </c>
       <c r="H19">
-        <v>1550.807859927991</v>
+        <v>1528.644868024528</v>
       </c>
       <c r="I19">
-        <v>-847.8472982958609</v>
+        <v>-896.1152072866244</v>
       </c>
       <c r="J19">
-        <v>1150.285941132466</v>
+        <v>1120.546824372229</v>
       </c>
       <c r="K19">
-        <v>3028.33443140788</v>
+        <v>3122.440606879859</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.10645565544651</v>
+        <v>73.51208499568031</v>
       </c>
       <c r="G20">
-        <v>78.04869009786022</v>
+        <v>84.92055080472105</v>
       </c>
       <c r="H20">
-        <v>1586.191229845277</v>
+        <v>1528.384864472735</v>
       </c>
       <c r="I20">
-        <v>-821.3828769510924</v>
+        <v>-856.5158857080078</v>
       </c>
       <c r="J20">
-        <v>1151.681037217798</v>
+        <v>1149.203061490874</v>
       </c>
       <c r="K20">
-        <v>3196.171370356496</v>
+        <v>3087.758878861382</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.7892534612304</v>
+        <v>69.43494203204112</v>
       </c>
       <c r="G21">
-        <v>102.4144841694843</v>
+        <v>97.55846161825147</v>
       </c>
       <c r="H21">
-        <v>1537.293485707605</v>
+        <v>1617.735252721502</v>
       </c>
       <c r="I21">
-        <v>-820.9810003592105</v>
+        <v>-809.5211372735799</v>
       </c>
       <c r="J21">
-        <v>1071.986531145823</v>
+        <v>1071.141035918922</v>
       </c>
       <c r="K21">
-        <v>3330.656612968097</v>
+        <v>3197.714489250633</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>64.90335768462914</v>
+        <v>71.3871032925513</v>
       </c>
       <c r="G22">
-        <v>114.5466185518304</v>
+        <v>109.4836228256274</v>
       </c>
       <c r="H22">
-        <v>1684.579734646304</v>
+        <v>1627.702676468135</v>
       </c>
       <c r="I22">
-        <v>-745.5919477204085</v>
+        <v>-720.9889345458993</v>
       </c>
       <c r="J22">
-        <v>987.9241082863914</v>
+        <v>1048.357153474861</v>
       </c>
       <c r="K22">
-        <v>3088.106790817078</v>
+        <v>3339.45693590808</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.8480362467348</v>
+        <v>66.34150746387756</v>
       </c>
       <c r="G23">
-        <v>132.5927687355025</v>
+        <v>136.4990182976843</v>
       </c>
       <c r="H23">
-        <v>1696.312288400087</v>
+        <v>1601.830763370355</v>
       </c>
       <c r="I23">
-        <v>-689.0853887202328</v>
+        <v>-706.7019607517776</v>
       </c>
       <c r="J23">
-        <v>995.0090570791061</v>
+        <v>1020.069501303511</v>
       </c>
       <c r="K23">
-        <v>3170.584264187684</v>
+        <v>3064.012220000911</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.06333644639885</v>
+        <v>60.93280587212114</v>
       </c>
       <c r="G24">
-        <v>144.3918624858215</v>
+        <v>145.2462767412917</v>
       </c>
       <c r="H24">
-        <v>1661.15233617867</v>
+        <v>1648.27283898629</v>
       </c>
       <c r="I24">
-        <v>-669.4810489178236</v>
+        <v>-624.0168157152423</v>
       </c>
       <c r="J24">
-        <v>964.7445329020774</v>
+        <v>891.4680749691593</v>
       </c>
       <c r="K24">
-        <v>3255.882450039031</v>
+        <v>3086.104006412633</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.8531225148058</v>
+        <v>59.36055713774184</v>
       </c>
       <c r="G25">
-        <v>163.5753445501526</v>
+        <v>171.9273856442237</v>
       </c>
       <c r="H25">
-        <v>1735.520466934329</v>
+        <v>1667.010623897266</v>
       </c>
       <c r="I25">
-        <v>-580.9697928450346</v>
+        <v>-622.7836970206901</v>
       </c>
       <c r="J25">
-        <v>846.929943835082</v>
+        <v>919.3561937921475</v>
       </c>
       <c r="K25">
-        <v>3188.7981080697</v>
+        <v>3202.130309858943</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.51745596876671</v>
+        <v>59.09066335492692</v>
       </c>
       <c r="G26">
-        <v>175.1001335537066</v>
+        <v>180.8909495447166</v>
       </c>
       <c r="H26">
-        <v>1712.390944550912</v>
+        <v>1754.035389336804</v>
       </c>
       <c r="I26">
-        <v>-523.3466520300248</v>
+        <v>-569.1074599891778</v>
       </c>
       <c r="J26">
-        <v>792.2155569820848</v>
+        <v>803.2100117863845</v>
       </c>
       <c r="K26">
-        <v>3202.495284286055</v>
+        <v>3041.819598916272</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.41163973528629</v>
+        <v>58.52128692184177</v>
       </c>
       <c r="G27">
-        <v>199.0501760948911</v>
+        <v>193.6835218823517</v>
       </c>
       <c r="H27">
-        <v>1724.765500924299</v>
+        <v>1765.087411092164</v>
       </c>
       <c r="I27">
-        <v>-493.54420184503</v>
+        <v>-482.4422582783113</v>
       </c>
       <c r="J27">
-        <v>800.5520379733581</v>
+        <v>769.9064295979756</v>
       </c>
       <c r="K27">
-        <v>3155.166905639569</v>
+        <v>3113.206731078895</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>59.09867521255347</v>
+        <v>55.72063949423274</v>
       </c>
       <c r="G28">
-        <v>215.3115338144168</v>
+        <v>213.2191428568951</v>
       </c>
       <c r="H28">
-        <v>1688.999632883716</v>
+        <v>1649.62152028075</v>
       </c>
       <c r="I28">
-        <v>-446.7167507046818</v>
+        <v>-459.6303235551076</v>
       </c>
       <c r="J28">
-        <v>723.1126849940575</v>
+        <v>704.1299421472985</v>
       </c>
       <c r="K28">
-        <v>2968.568410061136</v>
+        <v>2860.901075223462</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.94948357708828</v>
+        <v>56.50158271408211</v>
       </c>
       <c r="G29">
-        <v>231.9355084713678</v>
+        <v>220.0113522622294</v>
       </c>
       <c r="H29">
-        <v>1657.815765660762</v>
+        <v>1731.80435232197</v>
       </c>
       <c r="I29">
-        <v>-364.6805955774446</v>
+        <v>-367.7712070599298</v>
       </c>
       <c r="J29">
-        <v>667.7471499460283</v>
+        <v>666.1243853317296</v>
       </c>
       <c r="K29">
-        <v>3009.680910987173</v>
+        <v>3013.77373737568</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.8837388487702</v>
+        <v>56.24896284732939</v>
       </c>
       <c r="G30">
-        <v>250.6062922038989</v>
+        <v>241.0729567773656</v>
       </c>
       <c r="H30">
-        <v>1785.804583603569</v>
+        <v>1755.712948425209</v>
       </c>
       <c r="I30">
-        <v>-328.4861961301896</v>
+        <v>-328.1784690449321</v>
       </c>
       <c r="J30">
-        <v>617.9014874142623</v>
+        <v>623.6171729845449</v>
       </c>
       <c r="K30">
-        <v>2723.207362969244</v>
+        <v>2810.253081960172</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.4446387587646</v>
+        <v>53.88905461035902</v>
       </c>
       <c r="G31">
-        <v>272.3651178890599</v>
+        <v>272.3373263832173</v>
       </c>
       <c r="H31">
-        <v>1782.418148270372</v>
+        <v>1762.060826406928</v>
       </c>
       <c r="I31">
-        <v>-255.151317207524</v>
+        <v>-279.6823584815979</v>
       </c>
       <c r="J31">
-        <v>566.9892247291604</v>
+        <v>590.876934600813</v>
       </c>
       <c r="K31">
-        <v>2756.327573636033</v>
+        <v>2675.865478710323</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.99715877922588</v>
+        <v>53.76819708356606</v>
       </c>
       <c r="G32">
-        <v>291.9815254856323</v>
+        <v>267.9858438105392</v>
       </c>
       <c r="H32">
-        <v>1792.671949922224</v>
+        <v>1797.745468022817</v>
       </c>
       <c r="I32">
-        <v>-214.219485732874</v>
+        <v>-202.5954621770725</v>
       </c>
       <c r="J32">
-        <v>541.643383583531</v>
+        <v>513.6179782849682</v>
       </c>
       <c r="K32">
-        <v>2498.986627863313</v>
+        <v>2648.721277390673</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.27310443125357</v>
+        <v>51.98477192999493</v>
       </c>
       <c r="G33">
-        <v>308.3231521881736</v>
+        <v>306.1818685826652</v>
       </c>
       <c r="H33">
-        <v>1716.619599614151</v>
+        <v>1861.952200936355</v>
       </c>
       <c r="I33">
-        <v>-148.4329852596944</v>
+        <v>-144.0012356046185</v>
       </c>
       <c r="J33">
-        <v>506.8315576344025</v>
+        <v>508.4110847036373</v>
       </c>
       <c r="K33">
-        <v>2387.610893426503</v>
+        <v>2304.02226482646</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.76361119456561</v>
+        <v>49.02831921282031</v>
       </c>
       <c r="G34">
-        <v>313.399693783868</v>
+        <v>307.8938100902654</v>
       </c>
       <c r="H34">
-        <v>1817.675606288247</v>
+        <v>1867.151860008569</v>
       </c>
       <c r="I34">
-        <v>-84.12702943841877</v>
+        <v>-85.8822973379781</v>
       </c>
       <c r="J34">
-        <v>447.9631500934418</v>
+        <v>444.8954553906785</v>
       </c>
       <c r="K34">
-        <v>2126.640582304207</v>
+        <v>2174.026325186023</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.26890354898306</v>
+        <v>46.01841398492915</v>
       </c>
       <c r="G35">
-        <v>320.6668150222297</v>
+        <v>321.0679005288852</v>
       </c>
       <c r="H35">
-        <v>1808.602784207163</v>
+        <v>1909.103756203965</v>
       </c>
       <c r="I35">
-        <v>-18.13826517092024</v>
+        <v>-19.52809227683982</v>
       </c>
       <c r="J35">
-        <v>400.180720420323</v>
+        <v>383.48344994006</v>
       </c>
       <c r="K35">
-        <v>1954.759141581197</v>
+        <v>1986.764978126911</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.17942587583907</v>
+        <v>48.3243134859779</v>
       </c>
       <c r="G36">
-        <v>352.3873228257917</v>
+        <v>347.5853358121464</v>
       </c>
       <c r="H36">
-        <v>1872.828053440887</v>
+        <v>1808.470428616834</v>
       </c>
       <c r="I36">
-        <v>45.4365941306073</v>
+        <v>46.76408201859201</v>
       </c>
       <c r="J36">
-        <v>338.9714521660087</v>
+        <v>329.0983447537399</v>
       </c>
       <c r="K36">
-        <v>1895.56828183266</v>
+        <v>1855.972060002989</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.78920354636322</v>
+        <v>45.27661720930183</v>
       </c>
       <c r="G37">
-        <v>374.6120600998452</v>
+        <v>366.1669570644019</v>
       </c>
       <c r="H37">
-        <v>1910.259321669441</v>
+        <v>1815.966588001378</v>
       </c>
       <c r="I37">
-        <v>118.8607233238274</v>
+        <v>115.6397055373088</v>
       </c>
       <c r="J37">
-        <v>290.6422281078474</v>
+        <v>290.3994106270962</v>
       </c>
       <c r="K37">
-        <v>1669.544960434987</v>
+        <v>1623.715681905212</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.53537359489096</v>
+        <v>47.86229122298683</v>
       </c>
       <c r="G38">
-        <v>391.2131770490751</v>
+        <v>382.663666475891</v>
       </c>
       <c r="H38">
-        <v>1890.142468154908</v>
+        <v>1803.040985205673</v>
       </c>
       <c r="I38">
-        <v>191.570992507958</v>
+        <v>176.6020196666372</v>
       </c>
       <c r="J38">
-        <v>245.8972139588633</v>
+        <v>238.4316473416261</v>
       </c>
       <c r="K38">
-        <v>1391.405683944409</v>
+        <v>1389.980562420446</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.86899527224124</v>
+        <v>44.91748458462415</v>
       </c>
       <c r="G39">
-        <v>379.9622791243286</v>
+        <v>412.4904769476093</v>
       </c>
       <c r="H39">
-        <v>1864.343731926167</v>
+        <v>1855.529811097483</v>
       </c>
       <c r="I39">
-        <v>261.0430387141386</v>
+        <v>261.7872431807607</v>
       </c>
       <c r="J39">
-        <v>198.9982444984464</v>
+        <v>202.180963459281</v>
       </c>
       <c r="K39">
-        <v>1097.059857471576</v>
+        <v>1116.344706522559</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.69455347779088</v>
+        <v>46.14069157510193</v>
       </c>
       <c r="G40">
-        <v>393.8561887612402</v>
+        <v>393.5189164269603</v>
       </c>
       <c r="H40">
-        <v>1855.410614058827</v>
+        <v>1963.749454060625</v>
       </c>
       <c r="I40">
-        <v>343.3244440005138</v>
+        <v>336.3836633655726</v>
       </c>
       <c r="J40">
-        <v>148.9874389616039</v>
+        <v>152.8358167048719</v>
       </c>
       <c r="K40">
-        <v>855.5737306542619</v>
+        <v>899.5693558713861</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.31822946940171</v>
+        <v>44.79418685013864</v>
       </c>
       <c r="G41">
-        <v>415.178902515356</v>
+        <v>421.3783959933238</v>
       </c>
       <c r="H41">
-        <v>1817.215153920976</v>
+        <v>1802.992961604194</v>
       </c>
       <c r="I41">
-        <v>401.9395763656034</v>
+        <v>386.3751767833833</v>
       </c>
       <c r="J41">
-        <v>107.1392848909511</v>
+        <v>104.0213590195066</v>
       </c>
       <c r="K41">
-        <v>637.574714959569</v>
+        <v>605.7846760446407</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.94272262972323</v>
+        <v>41.86046477964256</v>
       </c>
       <c r="G42">
-        <v>451.3065801215959</v>
+        <v>423.5385484877011</v>
       </c>
       <c r="H42">
-        <v>1937.756261213272</v>
+        <v>1880.434128865269</v>
       </c>
       <c r="I42">
-        <v>481.0123092171868</v>
+        <v>482.9910902932742</v>
       </c>
       <c r="J42">
-        <v>52.37212328870732</v>
+        <v>56.41126959915723</v>
       </c>
       <c r="K42">
-        <v>341.7123903740177</v>
+        <v>324.1859684318275</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.2407209153237</v>
+        <v>41.16542931492059</v>
       </c>
       <c r="G43">
-        <v>445.8123637955498</v>
+        <v>483.1639369006566</v>
       </c>
       <c r="H43">
-        <v>1850.053900107637</v>
+        <v>1856.132765194611</v>
       </c>
       <c r="I43">
-        <v>531.2037176906907</v>
+        <v>550.6958044916822</v>
       </c>
       <c r="J43">
-        <v>5.222779215162847</v>
+        <v>5.343582863098636</v>
       </c>
       <c r="K43">
-        <v>32.54939225046004</v>
+        <v>35.13543783203091</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.58227270438188</v>
+        <v>40.28702233900548</v>
       </c>
       <c r="G44">
-        <v>498.6628746716447</v>
+        <v>498.4738515883691</v>
       </c>
       <c r="H44">
-        <v>1855.351748127222</v>
+        <v>1930.39637919245</v>
       </c>
       <c r="I44">
-        <v>666.3418692391016</v>
+        <v>622.7849524990165</v>
       </c>
       <c r="J44">
-        <v>-45.50711587279837</v>
+        <v>-44.90915668080557</v>
       </c>
       <c r="K44">
-        <v>-279.8589773252181</v>
+        <v>-292.0259780479611</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.13261265758518</v>
+        <v>40.09646950605826</v>
       </c>
       <c r="G45">
-        <v>477.2841536598572</v>
+        <v>510.21840117601</v>
       </c>
       <c r="H45">
-        <v>1889.889302300415</v>
+        <v>1976.910086623393</v>
       </c>
       <c r="I45">
-        <v>732.2244532153037</v>
+        <v>737.9549021660491</v>
       </c>
       <c r="J45">
-        <v>-88.75683126963138</v>
+        <v>-87.82380394106551</v>
       </c>
       <c r="K45">
-        <v>-619.3150624383217</v>
+        <v>-634.5430289147331</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.77565194539493</v>
+        <v>41.55174323956535</v>
       </c>
       <c r="G46">
-        <v>513.9173550138104</v>
+        <v>510.2879225684304</v>
       </c>
       <c r="H46">
-        <v>1962.667242101045</v>
+        <v>1856.245968826581</v>
       </c>
       <c r="I46">
-        <v>840.6571299483007</v>
+        <v>820.0712085838879</v>
       </c>
       <c r="J46">
-        <v>-144.7007198361081</v>
+        <v>-146.7424653589715</v>
       </c>
       <c r="K46">
-        <v>-967.1221928466707</v>
+        <v>-970.9560835003758</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>37.96488242867576</v>
+        <v>41.38502935273652</v>
       </c>
       <c r="G47">
-        <v>508.9205547497577</v>
+        <v>531.4482978213101</v>
       </c>
       <c r="H47">
-        <v>1923.743798972572</v>
+        <v>1849.017791340652</v>
       </c>
       <c r="I47">
-        <v>859.9778336850525</v>
+        <v>888.2386497526958</v>
       </c>
       <c r="J47">
-        <v>-189.6781171852402</v>
+        <v>-183.7756980506516</v>
       </c>
       <c r="K47">
-        <v>-1339.100918911241</v>
+        <v>-1334.005193775776</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.15988227586816</v>
+        <v>39.60467783161029</v>
       </c>
       <c r="G48">
-        <v>542.6644153357728</v>
+        <v>551.5703727478792</v>
       </c>
       <c r="H48">
-        <v>2033.246347534855</v>
+        <v>1935.378313455006</v>
       </c>
       <c r="I48">
-        <v>969.6010051647268</v>
+        <v>962.0057547048397</v>
       </c>
       <c r="J48">
-        <v>-229.0516116444105</v>
+        <v>-241.8605691254718</v>
       </c>
       <c r="K48">
-        <v>-1783.886013580011</v>
+        <v>-1784.238084306653</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.50447499425653</v>
+        <v>38.68814956215328</v>
       </c>
       <c r="G49">
-        <v>586.3056049733116</v>
+        <v>568.8351317305962</v>
       </c>
       <c r="H49">
-        <v>2026.703617924408</v>
+        <v>2009.571632217462</v>
       </c>
       <c r="I49">
-        <v>1112.464476247601</v>
+        <v>1086.260236569655</v>
       </c>
       <c r="J49">
-        <v>-285.8031771251053</v>
+        <v>-281.2881738547877</v>
       </c>
       <c r="K49">
-        <v>-2104.070888877069</v>
+        <v>-2058.580004189151</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.86205926167772</v>
+        <v>37.52861774899444</v>
       </c>
       <c r="G50">
-        <v>572.1370467421286</v>
+        <v>590.0755623382471</v>
       </c>
       <c r="H50">
-        <v>1959.364057230422</v>
+        <v>1890.171847245482</v>
       </c>
       <c r="I50">
-        <v>1106.817247113339</v>
+        <v>1118.61087216315</v>
       </c>
       <c r="J50">
-        <v>-325.9421064802002</v>
+        <v>-322.5919017613427</v>
       </c>
       <c r="K50">
-        <v>-2619.976839343454</v>
+        <v>-2591.366401738985</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.70801658348468</v>
+        <v>39.08175922600798</v>
       </c>
       <c r="G51">
-        <v>588.965280334788</v>
+        <v>581.3006128859863</v>
       </c>
       <c r="H51">
-        <v>1885.458358798733</v>
+        <v>1894.000396059705</v>
       </c>
       <c r="I51">
-        <v>1282.08233464147</v>
+        <v>1230.46255262286</v>
       </c>
       <c r="J51">
-        <v>-368.5039851124645</v>
+        <v>-382.1626514291654</v>
       </c>
       <c r="K51">
-        <v>-2836.454755475558</v>
+        <v>-2893.02553911386</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.97373074081911</v>
+        <v>37.25384497247774</v>
       </c>
       <c r="G52">
-        <v>591.256373591283</v>
+        <v>608.8614728936997</v>
       </c>
       <c r="H52">
-        <v>2059.319321587579</v>
+        <v>1930.158176113443</v>
       </c>
       <c r="I52">
-        <v>1294.11897839071</v>
+        <v>1377.144638226</v>
       </c>
       <c r="J52">
-        <v>-453.0483976869655</v>
+        <v>-411.7545253562526</v>
       </c>
       <c r="K52">
-        <v>-3383.244843521964</v>
+        <v>-3240.785630832041</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.20398500640797</v>
+        <v>37.92738713928927</v>
       </c>
       <c r="G53">
-        <v>653.6275152296932</v>
+        <v>629.5441684542832</v>
       </c>
       <c r="H53">
-        <v>1897.447562641523</v>
+        <v>2027.744629723004</v>
       </c>
       <c r="I53">
-        <v>1394.268302489203</v>
+        <v>1506.47298401845</v>
       </c>
       <c r="J53">
-        <v>-480.2841468527129</v>
+        <v>-458.6553994159809</v>
       </c>
       <c r="K53">
-        <v>-3770.354868021104</v>
+        <v>-3732.416691166768</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.41303256402671</v>
+        <v>38.48306176775638</v>
       </c>
       <c r="G54">
-        <v>670.2133307058111</v>
+        <v>612.0429566425357</v>
       </c>
       <c r="H54">
-        <v>1970.012478757414</v>
+        <v>2035.540457785525</v>
       </c>
       <c r="I54">
-        <v>1513.068372841117</v>
+        <v>1524.727491693229</v>
       </c>
       <c r="J54">
-        <v>-505.6432555160428</v>
+        <v>-552.7054299400203</v>
       </c>
       <c r="K54">
-        <v>-4138.196178693381</v>
+        <v>-4283.921725359379</v>
       </c>
     </row>
   </sheetData>
